--- a/ig/sd-add-new-MS/all-profiles.xlsx
+++ b/ig/sd-add-new-MS/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T13:39:25+00:00</t>
+    <t>2024-02-19T13:46:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -15586,7 +15586,7 @@
         <v>83</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>76</v>
@@ -15798,7 +15798,7 @@
         <v>83</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>76</v>
@@ -35080,7 +35080,7 @@
         <v>83</v>
       </c>
       <c r="I279" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J279" t="s" s="2">
         <v>76</v>
